--- a/reports/tables/table_one_edit.xlsx
+++ b/reports/tables/table_one_edit.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10804"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ssomani/research/heartlab/statins_reddit/reports/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79248334-127B-1B4F-B37A-0462FBF62A99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A075C1B6-4959-864E-8CF9-7E2E3AD2B17A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="20" windowWidth="28360" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9740" yWindow="480" windowWidth="28360" windowHeight="19440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -510,18 +523,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -862,686 +869,608 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31.1640625" customWidth="1"/>
-    <col min="2" max="3" width="24.83203125" customWidth="1"/>
+    <col min="2" max="2" width="24.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="D1" s="2"/>
       <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="3"/>
+      <c r="C4">
+        <v>10553</v>
+      </c>
       <c r="D4">
-        <v>10553</v>
+        <v>9364</v>
       </c>
       <c r="E4">
-        <v>9364</v>
-      </c>
-      <c r="F4">
         <v>1189</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
       <c r="D5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" t="s">
+      <c r="C6" t="s">
         <v>44</v>
       </c>
-      <c r="F6" t="s">
+      <c r="E6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="1"/>
-      <c r="C7" s="3"/>
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="E7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F7" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="3"/>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="E8" t="s">
-        <v>80</v>
-      </c>
-      <c r="F8" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="3"/>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="E9" t="s">
-        <v>81</v>
-      </c>
-      <c r="F9" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="E10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F10" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="3"/>
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="E11" t="s">
-        <v>83</v>
-      </c>
-      <c r="F11" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="3"/>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
       <c r="D12" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="E12" t="s">
-        <v>84</v>
-      </c>
-      <c r="F12" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="3"/>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
       <c r="D13" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="E13" t="s">
-        <v>85</v>
-      </c>
-      <c r="F13" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="3"/>
+      <c r="C14" t="s">
+        <v>52</v>
+      </c>
       <c r="D14" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="E14" t="s">
-        <v>86</v>
-      </c>
-      <c r="F14" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="3"/>
+      <c r="C15" t="s">
+        <v>53</v>
+      </c>
       <c r="D15" t="s">
         <v>53</v>
       </c>
-      <c r="E15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="3"/>
+      <c r="C16" t="s">
+        <v>54</v>
+      </c>
       <c r="D16" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="E16" t="s">
-        <v>87</v>
-      </c>
-      <c r="F16" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="3"/>
+      <c r="C17" t="s">
+        <v>55</v>
+      </c>
       <c r="D17" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="E17" t="s">
-        <v>88</v>
-      </c>
-      <c r="F17" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="3"/>
+      <c r="C18" t="s">
+        <v>56</v>
+      </c>
       <c r="D18" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="E18" t="s">
-        <v>89</v>
-      </c>
-      <c r="F18" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="3"/>
+      <c r="C19" t="s">
+        <v>57</v>
+      </c>
       <c r="D19" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="E19" t="s">
-        <v>90</v>
-      </c>
-      <c r="F19" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="3"/>
+      <c r="C20" t="s">
+        <v>58</v>
+      </c>
       <c r="D20" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="E20" t="s">
-        <v>91</v>
-      </c>
-      <c r="F20" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="4">
-        <v>43872</v>
+      <c r="C21" t="s">
+        <v>59</v>
       </c>
       <c r="D21" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="E21" t="s">
-        <v>92</v>
-      </c>
-      <c r="F21" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="4">
-        <v>40106</v>
+      <c r="C22" t="s">
+        <v>60</v>
       </c>
       <c r="D22" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="E22" t="s">
-        <v>93</v>
-      </c>
-      <c r="F22" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="4">
-        <v>39505</v>
+      <c r="C23" t="s">
+        <v>61</v>
       </c>
       <c r="D23" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="E23" t="s">
-        <v>94</v>
-      </c>
-      <c r="F23" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="4">
-        <v>39972</v>
+      <c r="C24" t="s">
+        <v>62</v>
       </c>
       <c r="D24" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="E24" t="s">
-        <v>95</v>
-      </c>
-      <c r="F24" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="4">
-        <v>41084</v>
+      <c r="C25" t="s">
+        <v>63</v>
       </c>
       <c r="D25" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="E25" t="s">
-        <v>96</v>
-      </c>
-      <c r="F25" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="4">
-        <v>43401</v>
+      <c r="C26" t="s">
+        <v>64</v>
       </c>
       <c r="D26" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="E26" t="s">
-        <v>97</v>
-      </c>
-      <c r="F26" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="4">
-        <v>39510</v>
+      <c r="C27" t="s">
+        <v>65</v>
       </c>
       <c r="D27" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="E27" t="s">
-        <v>98</v>
-      </c>
-      <c r="F27" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="4">
-        <v>39696</v>
+      <c r="C28" t="s">
+        <v>66</v>
       </c>
       <c r="D28" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="E28" t="s">
-        <v>99</v>
-      </c>
-      <c r="F28" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="4">
-        <v>39472</v>
+      <c r="C29" t="s">
+        <v>67</v>
       </c>
       <c r="D29" t="s">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="E29" t="s">
-        <v>100</v>
-      </c>
-      <c r="F29" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="4">
-        <v>39549</v>
+      <c r="C30" t="s">
+        <v>68</v>
       </c>
       <c r="D30" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="E30" t="s">
-        <v>101</v>
-      </c>
-      <c r="F30" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="4">
-        <v>40325</v>
+      <c r="C31" t="s">
+        <v>69</v>
       </c>
       <c r="D31" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="E31" t="s">
-        <v>102</v>
-      </c>
-      <c r="F31" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="4">
-        <v>41164</v>
+      <c r="C32" t="s">
+        <v>70</v>
       </c>
       <c r="D32" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="E32" t="s">
-        <v>103</v>
-      </c>
-      <c r="F32" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="4">
-        <v>39966</v>
+      <c r="C33" t="s">
+        <v>51</v>
       </c>
       <c r="D33" t="s">
-        <v>51</v>
+        <v>104</v>
       </c>
       <c r="E33" t="s">
-        <v>104</v>
-      </c>
-      <c r="F33" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="4">
-        <v>39472</v>
+      <c r="C34" t="s">
+        <v>71</v>
       </c>
       <c r="D34" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="E34" t="s">
-        <v>105</v>
-      </c>
-      <c r="F34" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="4">
-        <v>39769</v>
+      <c r="C35" t="s">
+        <v>72</v>
       </c>
       <c r="D35" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="E35" t="s">
-        <v>106</v>
-      </c>
-      <c r="F35" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="B36" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="4">
-        <v>39008</v>
+      <c r="C36" t="s">
+        <v>73</v>
       </c>
       <c r="D36" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="E36" t="s">
-        <v>107</v>
-      </c>
-      <c r="F36" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C37" s="4">
-        <v>39622</v>
+      <c r="C37" t="s">
+        <v>74</v>
       </c>
       <c r="D37" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="E37" t="s">
-        <v>108</v>
-      </c>
-      <c r="F37" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C38" s="4">
-        <v>44281</v>
+      <c r="C38" t="s">
+        <v>48</v>
       </c>
       <c r="D38" t="s">
-        <v>48</v>
+        <v>109</v>
       </c>
       <c r="E38" t="s">
-        <v>109</v>
-      </c>
-      <c r="F38" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C39" s="4">
-        <v>39810</v>
+      <c r="C39" t="s">
+        <v>75</v>
       </c>
       <c r="D39" t="s">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="E39" t="s">
-        <v>110</v>
-      </c>
-      <c r="F39" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B40" s="1"/>
-      <c r="C40" s="3"/>
+      <c r="C40" t="s">
+        <v>76</v>
+      </c>
       <c r="D40" t="s">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="E40" t="s">
-        <v>111</v>
-      </c>
-      <c r="F40" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B41" s="1"/>
-      <c r="C41" s="3"/>
+      <c r="C41" t="s">
+        <v>77</v>
+      </c>
       <c r="D41" t="s">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="E41" t="s">
-        <v>112</v>
-      </c>
-      <c r="F41" t="s">
         <v>143</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A8:A20"/>
     <mergeCell ref="A21:A39"/>
